--- a/5/eval.xlsx
+++ b/5/eval.xlsx
@@ -645,12 +645,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-AT"/>
-                  <a:t>Anzahl</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="de-AT" baseline="0"/>
-                  <a:t> Durchläufe</a:t>
+                  <a:t>Anzahl Durchläufe mit x Runden</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -767,12 +763,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
